--- a/immigration-analytics/src/main/resources/template/Language_Training_Client_Enrolment.xlsx
+++ b/immigration-analytics/src/main/resources/template/Language_Training_Client_Enrolment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Immigration, Refugees and Citizenship Canada
 iCARE - Immigration Contribution Agreement Reporting Environment
@@ -212,42 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reason for update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[BUID:305939,RID:,ORP:4/5,DTS:2018-08-07 10:05:04][1] (Client) Unable to validate against database. / (Client) Impossible de valider dans la base de données.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOSS/GCMS Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1978-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6G4A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-CCSNAR18008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infant (6-18 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amend record</t>
   </si>
 </sst>
 </file>
@@ -508,10 +472,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE1004"/>
+  <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,98 +739,38 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -1460,7 +1364,7 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
+      <c r="AE22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
@@ -1540,16 +1444,16 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
@@ -1604,17 +1508,17 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="9"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="9"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="9"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="T27" s="9"/>
+      <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -1636,7 +1540,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -1715,8 +1619,8 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -1748,15 +1652,15 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="8"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
+      <c r="AA31" s="10"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
+      <c r="AD31" s="10"/>
       <c r="AE31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,29 +1685,29 @@
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
-      <c r="AA32" s="10"/>
+      <c r="AA32" s="9"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
-      <c r="AD32" s="10"/>
+      <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -1903,16 +1807,16 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
@@ -3698,11 +3602,11 @@
       <c r="V90" s="9"/>
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
-      <c r="AB90" s="8"/>
-      <c r="AC90" s="8"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
       <c r="AE90" s="9"/>
     </row>
@@ -33835,39 +33739,7 @@
       <c r="AD1003" s="9"/>
       <c r="AE1003" s="9"/>
     </row>
-    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="7"/>
-      <c r="B1004" s="7"/>
-      <c r="C1004" s="9"/>
-      <c r="D1004" s="7"/>
-      <c r="E1004" s="7"/>
-      <c r="F1004" s="7"/>
-      <c r="G1004" s="7"/>
-      <c r="H1004" s="7"/>
-      <c r="I1004" s="9"/>
-      <c r="J1004" s="9"/>
-      <c r="K1004" s="9"/>
-      <c r="L1004" s="9"/>
-      <c r="M1004" s="9"/>
-      <c r="N1004" s="9"/>
-      <c r="O1004" s="9"/>
-      <c r="P1004" s="9"/>
-      <c r="Q1004" s="9"/>
-      <c r="R1004" s="9"/>
-      <c r="S1004" s="9"/>
-      <c r="T1004" s="9"/>
-      <c r="U1004" s="9"/>
-      <c r="V1004" s="9"/>
-      <c r="W1004" s="9"/>
-      <c r="X1004" s="9"/>
-      <c r="Y1004" s="9"/>
-      <c r="Z1004" s="9"/>
-      <c r="AA1004" s="9"/>
-      <c r="AB1004" s="9"/>
-      <c r="AC1004" s="9"/>
-      <c r="AD1004" s="9"/>
-      <c r="AE1004" s="9"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AE1"/>
@@ -33877,35 +33749,35 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE23:AE32 L26:U27 J28:U28 I29:U31 V31:W31 I32:X90 AA32:AA90 AD32 AD33:AE90 C34:C1004 I91:AE1004" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE22:AE31 L25:U26 J27:U27 I28:U30 V30:W30 I31:X89 AA31:AA89 AD31 AD32:AE89 C33:C1003 I90:AE1003" type="list">
       <formula1>'xlfile://root/currentdir/[language+training+-+client+enrolment_bulk+upload+template_2018-07-16_ver_797 (3).xlsx]lov'!#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C33" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C32" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I28" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I27" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:K27 V4:X30 AA4:AA31 AD4:AD31 X31" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:K26 V4:X29 AA4:AA30 AD4:AD30 X30" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L4:L25 N4:N25 P4:P25 R4:R25 T4:T25" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L4:L24 N4:N24 P4:P24 R4:R24 T4:T24" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M4:M25 O4:O25 Q4:Q25 S4:S25 U4:U25" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M4:M24 O4:O24 Q4:Q24 S4:S24 U4:U24" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE4:AE22" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE4:AE21" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y4:Z90 AB4:AC90" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y4:Z89 AB4:AC89" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
